--- a/2021_01/meta/CSC201_Schedule_Spring2021.xlsx
+++ b/2021_01/meta/CSC201_Schedule_Spring2021.xlsx
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
